--- a/projects_data/AutoPatternmaker/Armstrong.xlsx
+++ b/projects_data/AutoPatternmaker/Armstrong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxia2\Documents\GitHub\sxia2.github.io\projects_data\AutoPatternmaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84CBA2-76FF-4301-9050-CCF33DB219B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64AE1E7-9E02-4F4F-9D61-B3215C91ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17136" yWindow="8520" windowWidth="6696" windowHeight="5232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armstrong" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Sleeve_1</t>
+  </si>
+  <si>
+    <t>Sleeve_2</t>
+  </si>
+  <si>
+    <t>Sleeve_3</t>
+  </si>
+  <si>
+    <t>Sleeve_Length</t>
+  </si>
+  <si>
+    <t>Cap_Height</t>
+  </si>
+  <si>
+    <t>Biceps</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,6 +1847,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>12.25</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
